--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,7 +85,7 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Bmp6</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H2">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I2">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J2">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.050199</v>
+        <v>0.7708836666666666</v>
       </c>
       <c r="N2">
-        <v>0.100398</v>
+        <v>2.312651</v>
       </c>
       <c r="O2">
-        <v>0.03278033019113316</v>
+        <v>0.5975056510655317</v>
       </c>
       <c r="P2">
-        <v>0.02558313640211376</v>
+        <v>0.6900916471389698</v>
       </c>
       <c r="Q2">
-        <v>0.337116554997</v>
+        <v>20.47865719699067</v>
       </c>
       <c r="R2">
-        <v>1.348466219988</v>
+        <v>122.871943181944</v>
       </c>
       <c r="S2">
-        <v>0.006984672996279032</v>
+        <v>0.5021384589369111</v>
       </c>
       <c r="T2">
-        <v>0.004575840521972322</v>
+        <v>0.5617802680618453</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H3">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I3">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J3">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7708836666666666</v>
+        <v>0.519286</v>
       </c>
       <c r="N3">
-        <v>2.312651</v>
+        <v>1.038572</v>
       </c>
       <c r="O3">
-        <v>0.5033929188287568</v>
+        <v>0.4024943489344683</v>
       </c>
       <c r="P3">
-        <v>0.5893032329676366</v>
+        <v>0.3099083528610301</v>
       </c>
       <c r="Q3">
-        <v>5.176948664517666</v>
+        <v>13.794921907192</v>
       </c>
       <c r="R3">
-        <v>31.06169198710599</v>
+        <v>55.179687628768</v>
       </c>
       <c r="S3">
-        <v>0.1072605097679084</v>
+        <v>0.3382526872245482</v>
       </c>
       <c r="T3">
-        <v>0.1054037148048747</v>
+        <v>0.2522859076278812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.715603</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H4">
-        <v>13.431206</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I4">
-        <v>0.2130751263197567</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J4">
-        <v>0.178861592654224</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6195459999999999</v>
+        <v>0.7708836666666666</v>
       </c>
       <c r="N4">
-        <v>1.239092</v>
+        <v>2.312651</v>
       </c>
       <c r="O4">
-        <v>0.4045682672681883</v>
+        <v>0.5975056510655317</v>
       </c>
       <c r="P4">
-        <v>0.3157419435722618</v>
+        <v>0.6900916471389698</v>
       </c>
       <c r="Q4">
-        <v>4.160624976237999</v>
+        <v>1.572687991125778</v>
       </c>
       <c r="R4">
-        <v>16.642499904952</v>
+        <v>14.154191920132</v>
       </c>
       <c r="S4">
-        <v>0.08620343465313431</v>
+        <v>0.03856244658309588</v>
       </c>
       <c r="T4">
-        <v>0.05647410689507487</v>
+        <v>0.06471408789650392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.040110666666667</v>
+      </c>
+      <c r="H5">
+        <v>6.120331999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.06453904915263559</v>
+      </c>
+      <c r="J5">
+        <v>0.09377607766272801</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>6.715603</v>
-      </c>
-      <c r="H5">
-        <v>13.431206</v>
-      </c>
-      <c r="I5">
-        <v>0.2130751263197567</v>
-      </c>
-      <c r="J5">
-        <v>0.178861592654224</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09074700000000001</v>
+        <v>0.519286</v>
       </c>
       <c r="N5">
-        <v>0.272241</v>
+        <v>1.038572</v>
       </c>
       <c r="O5">
-        <v>0.05925848371192178</v>
+        <v>0.4024943489344683</v>
       </c>
       <c r="P5">
-        <v>0.06937168705798773</v>
+        <v>0.3099083528610301</v>
       </c>
       <c r="Q5">
-        <v>0.6094208254410001</v>
+        <v>1.059400907650667</v>
       </c>
       <c r="R5">
-        <v>3.656524952646</v>
+        <v>6.356405445904</v>
       </c>
       <c r="S5">
-        <v>0.01262650890243498</v>
+        <v>0.02597660256953971</v>
       </c>
       <c r="T5">
-        <v>0.0124079304323021</v>
+        <v>0.02906198976622408</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.000897</v>
+      </c>
+      <c r="H6">
+        <v>6.001794</v>
+      </c>
+      <c r="I6">
+        <v>0.09493359460810134</v>
+      </c>
+      <c r="J6">
+        <v>0.09195983163326681</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.040110666666667</v>
-      </c>
-      <c r="H6">
-        <v>6.120332</v>
-      </c>
-      <c r="I6">
-        <v>0.06472938290221787</v>
-      </c>
-      <c r="J6">
-        <v>0.08150365120545484</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.050199</v>
+        <v>0.7708836666666666</v>
       </c>
       <c r="N6">
-        <v>0.100398</v>
+        <v>2.312651</v>
       </c>
       <c r="O6">
-        <v>0.03278033019113316</v>
+        <v>0.5975056510655317</v>
       </c>
       <c r="P6">
-        <v>0.02558313640211376</v>
+        <v>0.6900916471389698</v>
       </c>
       <c r="Q6">
-        <v>0.102411515356</v>
+        <v>2.313342482649</v>
       </c>
       <c r="R6">
-        <v>0.6144690921360001</v>
+        <v>13.880054895894</v>
       </c>
       <c r="S6">
-        <v>0.002121850544602991</v>
+        <v>0.05672335925430484</v>
       </c>
       <c r="T6">
-        <v>0.002085119026059455</v>
+        <v>0.06346071168242343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.040110666666667</v>
+        <v>3.000897</v>
       </c>
       <c r="H7">
-        <v>6.120332</v>
+        <v>6.001794</v>
       </c>
       <c r="I7">
-        <v>0.06472938290221787</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J7">
-        <v>0.08150365120545484</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7708836666666666</v>
+        <v>0.519286</v>
       </c>
       <c r="N7">
-        <v>2.312651</v>
+        <v>1.038572</v>
       </c>
       <c r="O7">
-        <v>0.5033929188287568</v>
+        <v>0.4024943489344683</v>
       </c>
       <c r="P7">
-        <v>0.5893032329676366</v>
+        <v>0.3099083528610301</v>
       </c>
       <c r="Q7">
-        <v>1.572687991125778</v>
+        <v>1.558323799542</v>
       </c>
       <c r="R7">
-        <v>14.154191920132</v>
+        <v>6.233295198168</v>
       </c>
       <c r="S7">
-        <v>0.03258431299313168</v>
+        <v>0.0382102353537965</v>
       </c>
       <c r="T7">
-        <v>0.04803036515404115</v>
+        <v>0.02849911995084337</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.004305666666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.012917</v>
+      </c>
+      <c r="I8">
+        <v>0.0001362100778037195</v>
+      </c>
+      <c r="J8">
+        <v>0.0001979150142785486</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2.040110666666667</v>
-      </c>
-      <c r="H8">
-        <v>6.120332</v>
-      </c>
-      <c r="I8">
-        <v>0.06472938290221787</v>
-      </c>
-      <c r="J8">
-        <v>0.08150365120545484</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6195459999999999</v>
+        <v>0.7708836666666666</v>
       </c>
       <c r="N8">
-        <v>1.239092</v>
+        <v>2.312651</v>
       </c>
       <c r="O8">
-        <v>0.4045682672681883</v>
+        <v>0.5975056510655317</v>
       </c>
       <c r="P8">
-        <v>0.3157419435722618</v>
+        <v>0.6900916471389698</v>
       </c>
       <c r="Q8">
-        <v>1.263942403090667</v>
+        <v>0.003319168107444444</v>
       </c>
       <c r="R8">
-        <v>7.583654418544</v>
+        <v>0.029872512967</v>
       </c>
       <c r="S8">
-        <v>0.02618745428208938</v>
+        <v>8.138629121979812E-05</v>
       </c>
       <c r="T8">
-        <v>0.02573412123984603</v>
+        <v>0.0001365794981970163</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,551 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>2.040110666666667</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H9">
-        <v>6.120332</v>
+        <v>0.012917</v>
       </c>
       <c r="I9">
-        <v>0.06472938290221787</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J9">
-        <v>0.08150365120545484</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.09074700000000001</v>
+        <v>0.519286</v>
       </c>
       <c r="N9">
-        <v>0.272241</v>
+        <v>1.038572</v>
       </c>
       <c r="O9">
-        <v>0.05925848371192178</v>
+        <v>0.4024943489344683</v>
       </c>
       <c r="P9">
-        <v>0.06937168705798773</v>
+        <v>0.3099083528610301</v>
       </c>
       <c r="Q9">
-        <v>0.185133922668</v>
+        <v>0.002235872420666667</v>
       </c>
       <c r="R9">
-        <v>1.666205304012</v>
+        <v>0.013415234524</v>
       </c>
       <c r="S9">
-        <v>0.003835765082393826</v>
+        <v>5.482378658392134E-05</v>
       </c>
       <c r="T9">
-        <v>0.005654045785508197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>12.7442715</v>
-      </c>
-      <c r="H10">
-        <v>25.488543</v>
-      </c>
-      <c r="I10">
-        <v>0.4043549417253782</v>
-      </c>
-      <c r="J10">
-        <v>0.3394275536698397</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.5</v>
-      </c>
-      <c r="M10">
-        <v>0.050199</v>
-      </c>
-      <c r="N10">
-        <v>0.100398</v>
-      </c>
-      <c r="O10">
-        <v>0.03278033019113316</v>
-      </c>
-      <c r="P10">
-        <v>0.02558313640211376</v>
-      </c>
-      <c r="Q10">
-        <v>0.6397496850284999</v>
-      </c>
-      <c r="R10">
-        <v>2.558998740114</v>
-      </c>
-      <c r="S10">
-        <v>0.0132548885041743</v>
-      </c>
-      <c r="T10">
-        <v>0.008683621404171296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>12.7442715</v>
-      </c>
-      <c r="H11">
-        <v>25.488543</v>
-      </c>
-      <c r="I11">
-        <v>0.4043549417253782</v>
-      </c>
-      <c r="J11">
-        <v>0.3394275536698397</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.7708836666666666</v>
-      </c>
-      <c r="N11">
-        <v>2.312651</v>
-      </c>
-      <c r="O11">
-        <v>0.5033929188287568</v>
-      </c>
-      <c r="P11">
-        <v>0.5893032329676366</v>
-      </c>
-      <c r="Q11">
-        <v>9.824350742915499</v>
-      </c>
-      <c r="R11">
-        <v>58.94610445749299</v>
-      </c>
-      <c r="S11">
-        <v>0.20354941435797</v>
-      </c>
-      <c r="T11">
-        <v>0.2000257547359325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>12.7442715</v>
-      </c>
-      <c r="H12">
-        <v>25.488543</v>
-      </c>
-      <c r="I12">
-        <v>0.4043549417253782</v>
-      </c>
-      <c r="J12">
-        <v>0.3394275536698397</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.6195459999999999</v>
-      </c>
-      <c r="N12">
-        <v>1.239092</v>
-      </c>
-      <c r="O12">
-        <v>0.4045682672681883</v>
-      </c>
-      <c r="P12">
-        <v>0.3157419435722618</v>
-      </c>
-      <c r="Q12">
-        <v>7.895662430738998</v>
-      </c>
-      <c r="R12">
-        <v>31.58264972295599</v>
-      </c>
-      <c r="S12">
-        <v>0.1635891781351655</v>
-      </c>
-      <c r="T12">
-        <v>0.1071715154976934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>12.7442715</v>
-      </c>
-      <c r="H13">
-        <v>25.488543</v>
-      </c>
-      <c r="I13">
-        <v>0.4043549417253782</v>
-      </c>
-      <c r="J13">
-        <v>0.3394275536698397</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.09074700000000001</v>
-      </c>
-      <c r="N13">
-        <v>0.272241</v>
-      </c>
-      <c r="O13">
-        <v>0.05925848371192178</v>
-      </c>
-      <c r="P13">
-        <v>0.06937168705798773</v>
-      </c>
-      <c r="Q13">
-        <v>1.1565044058105</v>
-      </c>
-      <c r="R13">
-        <v>6.939026434862999</v>
-      </c>
-      <c r="S13">
-        <v>0.0239614607280684</v>
-      </c>
-      <c r="T13">
-        <v>0.02354666203204245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>10.017551</v>
-      </c>
-      <c r="H14">
-        <v>30.052653</v>
-      </c>
-      <c r="I14">
-        <v>0.3178405490526472</v>
-      </c>
-      <c r="J14">
-        <v>0.4002072024704813</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.050199</v>
-      </c>
-      <c r="N14">
-        <v>0.100398</v>
-      </c>
-      <c r="O14">
-        <v>0.03278033019113316</v>
-      </c>
-      <c r="P14">
-        <v>0.02558313640211376</v>
-      </c>
-      <c r="Q14">
-        <v>0.502871042649</v>
-      </c>
-      <c r="R14">
-        <v>3.017226255894</v>
-      </c>
-      <c r="S14">
-        <v>0.01041891814607683</v>
-      </c>
-      <c r="T14">
-        <v>0.01023855544991068</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>10.017551</v>
-      </c>
-      <c r="H15">
-        <v>30.052653</v>
-      </c>
-      <c r="I15">
-        <v>0.3178405490526472</v>
-      </c>
-      <c r="J15">
-        <v>0.4002072024704813</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.7708836666666666</v>
-      </c>
-      <c r="N15">
-        <v>2.312651</v>
-      </c>
-      <c r="O15">
-        <v>0.5033929188287568</v>
-      </c>
-      <c r="P15">
-        <v>0.5893032329676366</v>
-      </c>
-      <c r="Q15">
-        <v>7.722366445900333</v>
-      </c>
-      <c r="R15">
-        <v>69.501298013103</v>
-      </c>
-      <c r="S15">
-        <v>0.1599986817097467</v>
-      </c>
-      <c r="T15">
-        <v>0.2358433982727882</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>10.017551</v>
-      </c>
-      <c r="H16">
-        <v>30.052653</v>
-      </c>
-      <c r="I16">
-        <v>0.3178405490526472</v>
-      </c>
-      <c r="J16">
-        <v>0.4002072024704813</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.6195459999999999</v>
-      </c>
-      <c r="N16">
-        <v>1.239092</v>
-      </c>
-      <c r="O16">
-        <v>0.4045682672681883</v>
-      </c>
-      <c r="P16">
-        <v>0.3157419435722618</v>
-      </c>
-      <c r="Q16">
-        <v>6.206333651845998</v>
-      </c>
-      <c r="R16">
-        <v>37.238001911076</v>
-      </c>
-      <c r="S16">
-        <v>0.1285882001977991</v>
-      </c>
-      <c r="T16">
-        <v>0.1263621999396475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>10.017551</v>
-      </c>
-      <c r="H17">
-        <v>30.052653</v>
-      </c>
-      <c r="I17">
-        <v>0.3178405490526472</v>
-      </c>
-      <c r="J17">
-        <v>0.4002072024704813</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.09074700000000001</v>
-      </c>
-      <c r="N17">
-        <v>0.272241</v>
-      </c>
-      <c r="O17">
-        <v>0.05925848371192178</v>
-      </c>
-      <c r="P17">
-        <v>0.06937168705798773</v>
-      </c>
-      <c r="Q17">
-        <v>0.909062700597</v>
-      </c>
-      <c r="R17">
-        <v>8.181564305373</v>
-      </c>
-      <c r="S17">
-        <v>0.01883474899902457</v>
-      </c>
-      <c r="T17">
-        <v>0.02776304880813496</v>
+        <v>6.133551608153225E-05</v>
       </c>
     </row>
   </sheetData>
